--- a/input/2021_2024_stream_lengths.xlsx
+++ b/input/2021_2024_stream_lengths.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmeyer\Documents\github_local\salmon-habitat-mapping\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/salmon-habitat-mapping/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_065CD7F44DE6B8CD8BDFCCC3FE74D56F17D9ECCC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{419CA20D-6F72-4A65-92B7-133D40A12004}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21480" windowHeight="7668"/>
+    <workbookView xWindow="29970" yWindow="-1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2021_2024_stream_lengths" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm.Database">'2021_2024_stream_lengths'!$A$1:$S$24</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -279,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
@@ -1085,31 +1099,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" customWidth="1"/>
-    <col min="4" max="5" width="10.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="65.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.77734375" style="1" customWidth="1"/>
-    <col min="11" max="15" width="10.77734375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="19.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.21875" style="1" customWidth="1"/>
-    <col min="19" max="19" width="35.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" style="1" customWidth="1"/>
+    <col min="11" max="15" width="10.7109375" style="1" customWidth="1"/>
+    <col min="16" max="17" width="19.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="19.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1182,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>5540</v>
       </c>
@@ -1218,7 +1232,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>8637</v>
       </c>
@@ -1268,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13778</v>
       </c>
@@ -1318,7 +1332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14137</v>
       </c>
@@ -1368,7 +1382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>19486</v>
       </c>
@@ -1418,7 +1432,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>20082</v>
       </c>
@@ -1468,7 +1482,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>77389</v>
       </c>
@@ -1518,7 +1532,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>87039</v>
       </c>
@@ -1574,7 +1588,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>90003</v>
       </c>
@@ -1624,7 +1638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>107581</v>
       </c>
@@ -1674,7 +1688,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>107584</v>
       </c>
@@ -1715,7 +1729,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>107586</v>
       </c>
@@ -1765,7 +1779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>107587</v>
       </c>
@@ -1806,7 +1820,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>107591</v>
       </c>
@@ -1856,7 +1870,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>107595</v>
       </c>
@@ -1906,7 +1920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>107599</v>
       </c>
@@ -1956,7 +1970,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>107610</v>
       </c>
@@ -2006,7 +2020,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -2059,7 +2073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -2109,7 +2123,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -2159,7 +2173,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -2203,7 +2217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -2253,7 +2267,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>

--- a/input/2021_2024_stream_lengths.xlsx
+++ b/input/2021_2024_stream_lengths.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd0dd052dcf49e10/Documents/GitHub_Local/salmon-habitat-mapping/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmeyer\Documents\github_local\salmon-habitat-mapping\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_065CD7F44DE6B8CD8BDFCCC3FE74D56F17D9ECCC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{419CA20D-6F72-4A65-92B7-133D40A12004}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="-1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29976" yWindow="-1812" windowWidth="21600" windowHeight="11292"/>
   </bookViews>
   <sheets>
     <sheet name="2021_2024_stream_lengths" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Database">'2021_2024_stream_lengths'!$A$1:$S$24</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="87">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -288,12 +287,21 @@
   </si>
   <si>
     <t>Shape_Length</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>{20a0ce80-d5de-4b17-a196-7634fdf13f0c}</t>
+  </si>
+  <si>
+    <t>Strawberry Rd Corridor 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000000000"/>
   </numFmts>
@@ -774,11 +782,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1099,31 +1108,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J10" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="65.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" style="1" customWidth="1"/>
-    <col min="11" max="15" width="10.7109375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="19.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="19.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="35.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="65.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="1" customWidth="1"/>
+    <col min="11" max="15" width="10.6640625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="19.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="19.33203125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="35.5546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1182,7 +1191,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>5540</v>
       </c>
@@ -1232,7 +1241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>8637</v>
       </c>
@@ -1282,7 +1291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>13778</v>
       </c>
@@ -1332,7 +1341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>14137</v>
       </c>
@@ -1382,7 +1391,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>19486</v>
       </c>
@@ -1432,7 +1441,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>20082</v>
       </c>
@@ -1482,7 +1491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>77389</v>
       </c>
@@ -1532,7 +1541,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>87039</v>
       </c>
@@ -1588,7 +1597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>90003</v>
       </c>
@@ -1638,7 +1647,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>107581</v>
       </c>
@@ -1688,7 +1697,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>107584</v>
       </c>
@@ -1729,7 +1738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>107586</v>
       </c>
@@ -1779,7 +1788,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>107587</v>
       </c>
@@ -1820,7 +1829,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>107591</v>
       </c>
@@ -1870,7 +1879,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>107595</v>
       </c>
@@ -1920,7 +1929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>107599</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>107610</v>
       </c>
@@ -2020,7 +2029,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -2073,7 +2082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -2123,7 +2132,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -2173,7 +2182,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -2217,7 +2226,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -2267,7 +2276,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -2309,6 +2318,58 @@
       </c>
       <c r="S24" s="1" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43304</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0.40162058</v>
+      </c>
+      <c r="H25" s="1">
+        <v>19020302013760</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1">
+        <v>460</v>
+      </c>
+      <c r="L25" s="1">
+        <v>46006</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>6.2252813061799998E-3</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>2154.37420068045</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
